--- a/src/test/resources/Demo.xlsx
+++ b/src/test/resources/Demo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="55">
   <si>
     <t>element_type</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test10</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +524,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/Demo.xlsx
+++ b/src/test/resources/Demo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="57">
   <si>
     <t>element_type</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>Test12</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,6 +538,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
